--- a/methods_sorted_logsum.xlsx
+++ b/methods_sorted_logsum.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,482 +421,556 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>NWNorm5.1_1</t>
+          <t>NWNorm5.1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2128152556956331</v>
+        <v>0.1618602533734721</v>
       </c>
       <c r="C2" t="n">
-        <v>1.159096764701659e-05</v>
+        <v>0.0001747261549481564</v>
       </c>
       <c r="D2" t="n">
-        <v>4.809509313102018e-05</v>
+        <v>3.102052950292337e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005391338439630911</v>
+        <v>0.007430710495014647</v>
       </c>
       <c r="F2" t="n">
-        <v>3.599427405533942</v>
+        <v>3.15877567116989</v>
       </c>
       <c r="G2" t="n">
-        <v>4.93588030638173</v>
+        <v>3.757642080137563</v>
       </c>
       <c r="H2" t="n">
-        <v>4.317899229963505</v>
+        <v>4.508350793297555</v>
       </c>
       <c r="I2" t="n">
-        <v>3.268303404611602</v>
+        <v>2.128969658741178</v>
       </c>
       <c r="J2" t="n">
-        <v>16.12151034649078</v>
+        <v>13.55373820334619</v>
       </c>
       <c r="K2" t="n">
-        <v>250.7222679626453</v>
+        <v>113.9256114548475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RitP6_1</t>
+          <t>WVal4.2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1101283880717773</v>
+        <v>0.0943817114690592</v>
       </c>
       <c r="C3" t="n">
-        <v>8.875304544222241e-05</v>
+        <v>0.0007862164860126169</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0007327132690699393</v>
+        <v>3.904911980027379e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01138981370030079</v>
+        <v>0.003349833383767153</v>
       </c>
       <c r="F3" t="n">
-        <v>1.862644371321575</v>
+        <v>1.841901564950238</v>
       </c>
       <c r="G3" t="n">
-        <v>4.051816735782052</v>
+        <v>3.104457853788327</v>
       </c>
       <c r="H3" t="n">
-        <v>3.135065943534456</v>
+        <v>4.408388751036164</v>
       </c>
       <c r="I3" t="n">
-        <v>1.943483379484819</v>
+        <v>2.474976793652722</v>
       </c>
       <c r="J3" t="n">
-        <v>10.9930104301229</v>
+        <v>11.82972496342745</v>
       </c>
       <c r="K3" t="n">
-        <v>45.98405326600489</v>
+        <v>62.38830717886515</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Dep3.3Econ_1</t>
+          <t>WNorm5.2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07702007648223969</v>
+        <v>0.09184623211758015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001956580582770952</v>
+        <v>0.001793659695046287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002604848934980313</v>
+        <v>0.0007682627934600271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.005948136261562542</v>
+        <v>0.005159289969440595</v>
       </c>
       <c r="F4" t="n">
-        <v>1.302670587032462</v>
+        <v>1.792420544605325</v>
       </c>
       <c r="G4" t="n">
-        <v>2.70850226075483</v>
+        <v>2.746259950691462</v>
       </c>
       <c r="H4" t="n">
-        <v>3.584217458010066</v>
+        <v>3.114490198942938</v>
       </c>
       <c r="I4" t="n">
-        <v>2.225619091097146</v>
+        <v>2.287410062630859</v>
       </c>
       <c r="J4" t="n">
-        <v>9.821009396894503</v>
+        <v>9.940580756870583</v>
       </c>
       <c r="K4" t="n">
-        <v>28.14550196870626</v>
+        <v>35.06812552943862</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NWVal4.1_1</t>
+          <t>Dep3.3Econ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.09457656586473909</v>
+        <v>0.08571850659006594</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001420246684371014</v>
+        <v>0.001850750750299363</v>
       </c>
       <c r="D5" t="n">
-        <v>0.003284678481903352</v>
+        <v>0.0003668143961895469</v>
       </c>
       <c r="E5" t="n">
-        <v>0.008301179176643414</v>
+        <v>0.01040448815002737</v>
       </c>
       <c r="F5" t="n">
-        <v>1.599610337999905</v>
+        <v>1.672835223857947</v>
       </c>
       <c r="G5" t="n">
-        <v>2.847636215929284</v>
+        <v>2.732652065881566</v>
       </c>
       <c r="H5" t="n">
-        <v>2.483507134587896</v>
+        <v>3.435553628119272</v>
       </c>
       <c r="I5" t="n">
-        <v>2.080860212017266</v>
+        <v>1.982779280093053</v>
       </c>
       <c r="J5" t="n">
-        <v>9.011613900534352</v>
+        <v>9.823820197951838</v>
       </c>
       <c r="K5" t="n">
-        <v>23.54003086730286</v>
+        <v>31.13928292632673</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Int2.4Hist_1</t>
+          <t>RitP6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07365955704257944</v>
+        <v>0.1004137797305334</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000246330891588476</v>
+        <v>0.001603720547324565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005091285075016158</v>
+        <v>0.000838546015977749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01506402425116393</v>
+        <v>0.01333868544744021</v>
       </c>
       <c r="F6" t="n">
-        <v>1.245832811336333</v>
+        <v>1.959620091111298</v>
       </c>
       <c r="G6" t="n">
-        <v>3.608481121229736</v>
+        <v>2.794871306456064</v>
       </c>
       <c r="H6" t="n">
-        <v>2.293172584942578</v>
+        <v>3.076473100098</v>
       </c>
       <c r="I6" t="n">
-        <v>1.822058993831926</v>
+        <v>1.874886968849286</v>
       </c>
       <c r="J6" t="n">
-        <v>8.969545511340572</v>
+        <v>9.705851466514648</v>
       </c>
       <c r="K6" t="n">
-        <v>18.78379662948582</v>
+        <v>31.59089362218752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ID1.1Over_1</t>
+          <t>ID1.1Over</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04979385179579555</v>
+        <v>0.05018276190078482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0035444600209295</v>
+        <v>0.003748771515059806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001205739209593706</v>
+        <v>0.001834555022446744</v>
       </c>
       <c r="E7" t="n">
-        <v>0.005738973713962814</v>
+        <v>0.007980368059179233</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8421828322176986</v>
+        <v>0.9793391774727701</v>
       </c>
       <c r="G7" t="n">
-        <v>2.450449917827291</v>
+        <v>2.426111028709592</v>
       </c>
       <c r="H7" t="n">
-        <v>2.918746615978653</v>
+        <v>2.736469258240739</v>
       </c>
       <c r="I7" t="n">
-        <v>2.241165764433569</v>
+        <v>2.097977078275286</v>
       </c>
       <c r="J7" t="n">
-        <v>8.452545130457212</v>
+        <v>8.239896542698387</v>
       </c>
       <c r="K7" t="n">
-        <v>13.49965249204919</v>
+        <v>13.64065148548926</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Int2.2Econ_1</t>
+          <t>RitWar6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05233900633076309</v>
+        <v>0.02808238967265011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001807746456904242</v>
+        <v>0.003075500751874999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007000021100102154</v>
+        <v>0.0009492187692397685</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01410125257592121</v>
+        <v>0.01023794417183255</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8852300233344075</v>
+        <v>0.548040469710633</v>
       </c>
       <c r="G8" t="n">
-        <v>2.742862480989463</v>
+        <v>2.512084162467213</v>
       </c>
       <c r="H8" t="n">
-        <v>2.154900650893726</v>
+        <v>3.022633682910798</v>
       </c>
       <c r="I8" t="n">
-        <v>1.850742308433301</v>
+        <v>1.989787243015034</v>
       </c>
       <c r="J8" t="n">
-        <v>7.633735463650897</v>
+        <v>8.072545558103679</v>
       </c>
       <c r="K8" t="n">
-        <v>9.683522686961549</v>
+        <v>8.280164696079872</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>SymP6_1</t>
+          <t>NWVal4.1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02863655146390786</v>
+        <v>0.07801036015790962</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0059352132870844</v>
+        <v>0.004331885672293764</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003230171971883016</v>
+        <v>0.004833423378039658</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02202405745538694</v>
+        <v>0.01348951425573031</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4843411615499524</v>
+        <v>1.522407278069861</v>
       </c>
       <c r="G9" t="n">
-        <v>2.226563669676629</v>
+        <v>2.363323013853539</v>
       </c>
       <c r="H9" t="n">
-        <v>2.490774355547635</v>
+        <v>2.315745161680243</v>
       </c>
       <c r="I9" t="n">
-        <v>1.657102668645013</v>
+        <v>1.870003688567833</v>
       </c>
       <c r="J9" t="n">
-        <v>6.858781855419229</v>
+        <v>8.071479142171476</v>
       </c>
       <c r="K9" t="n">
-        <v>4.451130218937473</v>
+        <v>15.58070712641386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CM8.5Peace_1</t>
+          <t>Int2.4Hist</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02765668865478607</v>
+        <v>0.07443256372442729</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003940508556087706</v>
+        <v>0.01352835461914771</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01122809382614684</v>
+        <v>0.006322684117965873</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02494469322612747</v>
+        <v>0.02818916540534588</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4677683597680133</v>
+        <v>1.45258497089476</v>
       </c>
       <c r="G10" t="n">
-        <v>2.404447725166841</v>
+        <v>1.868755021087393</v>
       </c>
       <c r="H10" t="n">
-        <v>1.949693966895492</v>
+        <v>2.19909851504764</v>
       </c>
       <c r="I10" t="n">
-        <v>1.603021832715751</v>
+        <v>1.549917782064493</v>
       </c>
       <c r="J10" t="n">
-        <v>6.424931884546096</v>
+        <v>7.070356289094285</v>
       </c>
       <c r="K10" t="n">
-        <v>3.515216411547579</v>
+        <v>9.25224799982206</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Dep3.2Ecol_1</t>
+          <t>SymP6</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04606927249737253</v>
+        <v>0.03973651218951724</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02876081577712156</v>
+        <v>0.01039262428930139</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01526265407198162</v>
+        <v>0.002364260523336136</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02569304998266886</v>
+        <v>0.03668155778303062</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7791875701674916</v>
+        <v>0.7754759142244403</v>
       </c>
       <c r="G11" t="n">
-        <v>1.541198799705088</v>
+        <v>1.98327477289969</v>
       </c>
       <c r="H11" t="n">
-        <v>1.816369938950504</v>
+        <v>2.62630466924033</v>
       </c>
       <c r="I11" t="n">
-        <v>1.590184338239695</v>
+        <v>1.435552229103202</v>
       </c>
       <c r="J11" t="n">
-        <v>5.726940647062778</v>
+        <v>6.820607585467663</v>
       </c>
       <c r="K11" t="n">
-        <v>3.468585909276605</v>
+        <v>5.798495238227477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lead9.1P_1</t>
+          <t>Int2.2Econ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05347586630831715</v>
+        <v>0.05911731782638566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01935445059667687</v>
+        <v>0.01872246560115822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04594997451165832</v>
+        <v>0.009950522211776131</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05742020295896189</v>
+        <v>0.01905343138803595</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9044581794460875</v>
+        <v>1.153701056329931</v>
       </c>
       <c r="G12" t="n">
-        <v>1.713219152230228</v>
+        <v>1.727636958671272</v>
       </c>
       <c r="H12" t="n">
-        <v>1.33771472517992</v>
+        <v>2.002154126516436</v>
       </c>
       <c r="I12" t="n">
-        <v>1.240935276768084</v>
+        <v>1.720026799584633</v>
       </c>
       <c r="J12" t="n">
-        <v>5.19632733362432</v>
+        <v>6.603518941102272</v>
       </c>
       <c r="K12" t="n">
-        <v>2.572255175836331</v>
+        <v>6.864019311026917</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Dep3.1Sec_1</t>
+          <t>Dep3.2Ecol</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09421480485281235</v>
+        <v>0.0493726715948877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05112196661223253</v>
+        <v>0.02636530487539192</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09423445713004794</v>
+        <v>0.02025386697258455</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09942851043683243</v>
+        <v>0.03161404138396606</v>
       </c>
       <c r="F13" t="n">
-        <v>1.593491732938785</v>
+        <v>0.9635299006652388</v>
       </c>
       <c r="G13" t="n">
-        <v>1.29139244764284</v>
+        <v>1.578967202336126</v>
       </c>
       <c r="H13" t="n">
-        <v>1.025790267003382</v>
+        <v>1.693492046793776</v>
       </c>
       <c r="I13" t="n">
-        <v>1.002489066809854</v>
+        <v>1.500119982535428</v>
       </c>
       <c r="J13" t="n">
-        <v>4.913163514394862</v>
+        <v>5.736109132330569</v>
       </c>
       <c r="K13" t="n">
-        <v>2.116149157476797</v>
+        <v>3.864981888069873</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SuperOrd7_1</t>
+          <t>Lead9.2War</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0796141149392766</v>
+        <v>0.02145340597413864</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06540950353760251</v>
+        <v>0.01828610593640076</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1573047397875459</v>
+        <v>0.0116370707066135</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1586090798271673</v>
+        <v>0.0296070243033375</v>
       </c>
       <c r="F14" t="n">
-        <v>1.346544570985104</v>
+        <v>0.4186728702226684</v>
       </c>
       <c r="G14" t="n">
-        <v>1.184359147178965</v>
+        <v>1.737878768574411</v>
       </c>
       <c r="H14" t="n">
-        <v>0.8032581913464256</v>
+        <v>1.934156326907506</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7996719544335317</v>
+        <v>1.528605239810358</v>
       </c>
       <c r="J14" t="n">
-        <v>4.133833863944027</v>
+        <v>5.619313205514942</v>
       </c>
       <c r="K14" t="n">
-        <v>1.024403797786272</v>
+        <v>2.151202103905502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>CM8.5Peace</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.04650637266922075</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01890584077833186</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0032209510378297</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9321558304810937</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9075927874827564</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.72340400397875</v>
+      </c>
+      <c r="H15" t="n">
+        <v>2.492015876907102</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.03051147964071956</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5.153524148009328</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.118930215976113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>SymWar6</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.01888516100936743</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.03335892609274689</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.01806146467832033</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.04048699661125732</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3685524141919634</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.476787938834694</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.74324703387193</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.392684438680742</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4.98127182557933</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.3213840340426</v>
       </c>
     </row>
   </sheetData>
